--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,109 +399,109 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>126</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>124</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>66</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -509,43 +509,43 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>155</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>336</v>
+        <v>111</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>345</v>
+        <v>126</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -553,18 +553,18 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>346</v>
+        <v>143</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>354</v>
+        <v>144</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -575,142 +575,142 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>392</v>
+        <v>145</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>232</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>405</v>
+        <v>216</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>676</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>406</v>
+        <v>305</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>414</v>
+        <v>335</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>95</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>416</v>
+        <v>336</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>417</v>
+        <v>346</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>439</v>
+        <v>354</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>448</v>
+        <v>382</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>955</v>
+        <v>414</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>991</v>
+        <v>417</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1007</v>
+        <v>434</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28">
-        <v>300</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1082</v>
+        <v>440</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1514</v>
+        <v>615</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -718,120 +718,120 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1519</v>
+        <v>823</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>1820</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2050</v>
+        <v>998</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>524</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>2055</v>
+        <v>1000</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2322</v>
+        <v>1053</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>729</v>
       </c>
       <c r="C34">
-        <v>119</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>2492</v>
+        <v>1091</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>2774</v>
+        <v>1492</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>184</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2778</v>
+        <v>1548</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>161</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>2916</v>
+        <v>2050</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>34</v>
+        <v>529</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>3047</v>
+        <v>2055</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>533</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>3053</v>
+        <v>2322</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>3379</v>
+        <v>2436</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -839,54 +839,54 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>3475</v>
+        <v>2438</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>3477</v>
+        <v>2537</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>3892</v>
+        <v>2538</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>3981</v>
+        <v>2992</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>4232</v>
+        <v>3016</v>
       </c>
       <c r="B46">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>4673</v>
+        <v>3024</v>
       </c>
       <c r="B47">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>4719</v>
+        <v>3053</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>5151</v>
+        <v>3475</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -927,65 +927,65 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>5209</v>
+        <v>3674</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>5434</v>
+        <v>3893</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>55</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>5513</v>
+        <v>3979</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>5584</v>
+        <v>3988</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>270</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>5646</v>
+        <v>5080</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>6036</v>
+        <v>5151</v>
       </c>
       <c r="B55">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -993,10 +993,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>6496</v>
+        <v>5209</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56">
         <v>7</v>
@@ -1004,43 +1004,43 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>7705</v>
+        <v>5434</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>203</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>7708</v>
+        <v>5584</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>198</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>8927</v>
+        <v>5646</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>904</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>9829</v>
+        <v>5729</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60">
         <v>7</v>
@@ -1048,18 +1048,18 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>10382</v>
+        <v>5730</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>10398</v>
+        <v>5733</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -1070,21 +1070,21 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>10507</v>
+        <v>6494</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>10721</v>
+        <v>7324</v>
       </c>
       <c r="B64">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>7</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>11489</v>
+        <v>7706</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65">
         <v>7</v>
@@ -1103,32 +1103,32 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>11618</v>
+        <v>8085</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <v>181</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>11706</v>
+        <v>8120</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67">
-        <v>672</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>11711</v>
+        <v>8939</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68">
         <v>7</v>
@@ -1136,95 +1136,95 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>11894</v>
+        <v>8945</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>140</v>
+        <v>652</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>11952</v>
+        <v>9069</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>231</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>12379</v>
+        <v>9081</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>12588</v>
+        <v>9797</v>
       </c>
       <c r="B72">
         <v>3</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>12919</v>
+        <v>9803</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>809</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>13024</v>
+        <v>10083</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>627</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>13287</v>
+        <v>10278</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>7</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>13288</v>
+        <v>10406</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>13289</v>
+        <v>10408</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>13469</v>
+        <v>10410</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>13498</v>
+        <v>10581</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -1257,18 +1257,18 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>21703</v>
+        <v>10940</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80">
-        <v>7</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>21793</v>
+        <v>11092</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -1279,32 +1279,32 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>22330</v>
+        <v>11685</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>22884</v>
+        <v>11894</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83">
-        <v>652</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>22920</v>
+        <v>12235</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84">
         <v>7</v>
@@ -1312,18 +1312,18 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>23533</v>
+        <v>12417</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>662</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>24257</v>
+        <v>12621</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -1334,13 +1334,156 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
+        <v>12721</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>12870</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>20259</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>20498</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>20649</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>21690</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>21793</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>22921</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>23443</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>23539</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>23960</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>23961</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
         <v>24724</v>
       </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
-      <c r="C87">
-        <v>65</v>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>24727</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,103 +405,103 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>123</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>127</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>127</v>
+        <v>627</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>125</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -509,150 +509,150 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>111</v>
+        <v>346</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>124</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>126</v>
+        <v>424</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>143</v>
+        <v>590</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>167</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>144</v>
+        <v>823</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>145</v>
+        <v>951</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>170</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>216</v>
+        <v>972</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>305</v>
+        <v>1007</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
-        <v>168</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>335</v>
+        <v>1049</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>1425</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>336</v>
+        <v>1124</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>346</v>
+        <v>1548</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>168</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>354</v>
+        <v>1664</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>382</v>
+        <v>2438</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -663,54 +663,54 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>414</v>
+        <v>2726</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>417</v>
+        <v>3071</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>173</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>434</v>
+        <v>3080</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>106</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>440</v>
+        <v>3840</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>615</v>
+        <v>3900</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -718,43 +718,43 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>823</v>
+        <v>4222</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>998</v>
+        <v>4232</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>264</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1000</v>
+        <v>5005</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>122</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1053</v>
+        <v>5151</v>
       </c>
       <c r="B34">
-        <v>729</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -762,32 +762,32 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1091</v>
+        <v>5209</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1492</v>
+        <v>5452</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1548</v>
+        <v>5733</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -795,43 +795,43 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>2050</v>
+        <v>5868</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>529</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>2055</v>
+        <v>7705</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>533</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>2322</v>
+        <v>8054</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>118</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>2436</v>
+        <v>9827</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -839,43 +839,43 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>2438</v>
+        <v>9967</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>2537</v>
+        <v>9971</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>2538</v>
+        <v>10149</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>2992</v>
+        <v>10409</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -883,10 +883,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>3016</v>
+        <v>10410</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -894,29 +894,29 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>3024</v>
+        <v>11150</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>3053</v>
+        <v>11159</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>551</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>3475</v>
+        <v>11288</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -927,76 +927,76 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>3674</v>
+        <v>11404</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50">
-        <v>260</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>3893</v>
+        <v>11495</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>128</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>3979</v>
+        <v>11510</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52">
-        <v>13</v>
+        <v>655</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>3988</v>
+        <v>11677</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>5080</v>
+        <v>11711</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>129</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>5151</v>
+        <v>11844</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>5209</v>
+        <v>11919</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>7</v>
@@ -1004,18 +1004,18 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>5434</v>
+        <v>11952</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>5584</v>
+        <v>12237</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>5646</v>
+        <v>12239</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -1037,29 +1037,29 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>5729</v>
+        <v>12430</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>5730</v>
+        <v>12720</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>5733</v>
+        <v>12722</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -1070,175 +1070,175 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>6494</v>
+        <v>12925</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>7324</v>
+        <v>13023</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>665</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>7706</v>
+        <v>13324</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>8085</v>
+        <v>13857</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <v>99</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>8120</v>
+        <v>19582</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>260</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>8939</v>
+        <v>19583</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>8945</v>
+        <v>21269</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
       <c r="C69">
-        <v>652</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>9069</v>
+        <v>21683</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>138</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>9081</v>
+        <v>21700</v>
       </c>
       <c r="B71">
         <v>3</v>
       </c>
       <c r="C71">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>9797</v>
+        <v>23425</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>14</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>9803</v>
+        <v>23493</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73">
-        <v>809</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>10083</v>
+        <v>23546</v>
       </c>
       <c r="B74">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>627</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>10278</v>
+        <v>23961</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
       <c r="C75">
-        <v>306</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>10406</v>
+        <v>24120</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>15</v>
+        <v>709</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>10408</v>
+        <v>24247</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C77">
-        <v>7</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>10410</v>
+        <v>24707</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C78">
         <v>7</v>
@@ -1246,244 +1246,13 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>10581</v>
+        <v>24726</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79">
         <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80">
-        <v>10940</v>
-      </c>
-      <c r="B80">
-        <v>2</v>
-      </c>
-      <c r="C80">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81">
-        <v>11092</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
-        <v>11685</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
-        <v>11894</v>
-      </c>
-      <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
-        <v>12235</v>
-      </c>
-      <c r="B84">
-        <v>3</v>
-      </c>
-      <c r="C84">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
-        <v>12417</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86">
-        <v>12621</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87">
-        <v>12721</v>
-      </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
-      <c r="C87">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88">
-        <v>12870</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89">
-        <v>20259</v>
-      </c>
-      <c r="B89">
-        <v>2</v>
-      </c>
-      <c r="C89">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90">
-        <v>20498</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91">
-        <v>20649</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92">
-        <v>21690</v>
-      </c>
-      <c r="B92">
-        <v>3</v>
-      </c>
-      <c r="C92">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93">
-        <v>21793</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94">
-        <v>22921</v>
-      </c>
-      <c r="B94">
-        <v>3</v>
-      </c>
-      <c r="C94">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95">
-        <v>23443</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96">
-        <v>23539</v>
-      </c>
-      <c r="B96">
-        <v>3</v>
-      </c>
-      <c r="C96">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97">
-        <v>23960</v>
-      </c>
-      <c r="B97">
-        <v>3</v>
-      </c>
-      <c r="C97">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98">
-        <v>23961</v>
-      </c>
-      <c r="B98">
-        <v>3</v>
-      </c>
-      <c r="C98">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99">
-        <v>24724</v>
-      </c>
-      <c r="B99">
-        <v>2</v>
-      </c>
-      <c r="C99">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100">
-        <v>24727</v>
-      </c>
-      <c r="B100">
-        <v>2</v>
-      </c>
-      <c r="C100">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,103 +405,103 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>129</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>71</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>126</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>627</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>171</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -509,54 +509,54 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>336</v>
+        <v>84</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>345</v>
+        <v>95</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>346</v>
+        <v>143</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>424</v>
+        <v>201</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>590</v>
+        <v>216</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -564,54 +564,54 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>823</v>
+        <v>345</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>951</v>
+        <v>417</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>972</v>
+        <v>471</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>111</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1007</v>
+        <v>473</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1049</v>
+        <v>560</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -619,18 +619,18 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1124</v>
+        <v>584</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22">
-        <v>210</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1548</v>
+        <v>950</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1664</v>
+        <v>955</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -652,18 +652,18 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2438</v>
+        <v>972</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>2726</v>
+        <v>975</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -674,65 +674,65 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>3071</v>
+        <v>1091</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>3080</v>
+        <v>1116</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>3840</v>
+        <v>1120</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>192</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>3900</v>
+        <v>1163</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>4222</v>
+        <v>1277</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>4232</v>
+        <v>1523</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -740,21 +740,21 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>5005</v>
+        <v>1691</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>5151</v>
+        <v>1743</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -762,10 +762,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>5209</v>
+        <v>1853</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -773,87 +773,87 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>5452</v>
+        <v>1988</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>5733</v>
+        <v>2194</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>5868</v>
+        <v>2217</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>7705</v>
+        <v>2326</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39">
-        <v>199</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>8054</v>
+        <v>2438</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>197</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>9827</v>
+        <v>2504</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>639</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>9967</v>
+        <v>2744</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>9971</v>
+        <v>2879</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -861,21 +861,21 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>10149</v>
+        <v>3059</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>10409</v>
+        <v>3379</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>10410</v>
+        <v>3392</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -894,29 +894,29 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>11150</v>
+        <v>3442</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C47">
-        <v>50</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>11159</v>
+        <v>3450</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>551</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>11288</v>
+        <v>3674</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -927,54 +927,54 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>11404</v>
+        <v>3891</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>125</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>11495</v>
+        <v>3994</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>11510</v>
+        <v>4030</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C52">
-        <v>655</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>11677</v>
+        <v>4222</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>11711</v>
+        <v>4232</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C54">
         <v>7</v>
@@ -982,29 +982,29 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>11844</v>
+        <v>4327</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>293</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>11919</v>
+        <v>4927</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>11952</v>
+        <v>5005</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>12237</v>
+        <v>5151</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58">
         <v>7</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>12239</v>
+        <v>5208</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -1037,32 +1037,32 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>12430</v>
+        <v>5209</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60">
-        <v>165</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>12720</v>
+        <v>5434</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>313</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>12722</v>
+        <v>5644</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -1070,76 +1070,76 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>12925</v>
+        <v>5733</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>13023</v>
+        <v>5734</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>665</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>13324</v>
+        <v>5745</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>13857</v>
+        <v>5872</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>19582</v>
+        <v>7703</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>168</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>19583</v>
+        <v>7705</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68">
-        <v>169</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>21269</v>
+        <v>8085</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>7</v>
@@ -1147,43 +1147,43 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>21683</v>
+        <v>8943</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>169</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>21700</v>
+        <v>9289</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>23425</v>
+        <v>9613</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
-        <v>194</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>23493</v>
+        <v>9783</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>7</v>
@@ -1191,21 +1191,21 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>23546</v>
+        <v>9785</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>23961</v>
+        <v>9967</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75">
         <v>7</v>
@@ -1213,29 +1213,29 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>24120</v>
+        <v>10514</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76">
-        <v>709</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>24247</v>
+        <v>10536</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
       <c r="C77">
-        <v>342</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>24707</v>
+        <v>10537</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -1246,13 +1246,552 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>24726</v>
+        <v>10581</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C79">
-        <v>7</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>10594</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>10780</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>10936</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>10939</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>11089</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>11159</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>11183</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>11213</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>11339</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>11411</v>
+      </c>
+      <c r="B89">
+        <v>29</v>
+      </c>
+      <c r="C89">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>11494</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>11495</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>11681</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>11775</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>11868</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>11919</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>12229</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>12234</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>12235</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>12239</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>12304</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>12430</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>12653</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>12661</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>12924</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>12925</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>12971</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>12972</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>13166</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>13171</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>13179</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>13288</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>13289</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>13324</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>13893</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>19361</v>
+      </c>
+      <c r="B115">
+        <v>23</v>
+      </c>
+      <c r="C115">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>19838</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>19969</v>
+      </c>
+      <c r="B117">
+        <v>29</v>
+      </c>
+      <c r="C117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>21269</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>21700</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>21946</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>22708</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>23234</v>
+      </c>
+      <c r="B122">
+        <v>29</v>
+      </c>
+      <c r="C122">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>23332</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>23380</v>
+      </c>
+      <c r="B124">
+        <v>29</v>
+      </c>
+      <c r="C124">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>23425</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>23604</v>
+      </c>
+      <c r="B126">
+        <v>10</v>
+      </c>
+      <c r="C126">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>23920</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>24247</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,32 +399,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>38</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -432,120 +432,120 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>144</v>
+        <v>305</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>214</v>
+        <v>345</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>305</v>
+        <v>440</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>167</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>345</v>
+        <v>996</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>345</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>418</v>
+        <v>2057</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>154</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>998</v>
+        <v>2336</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>267</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>999</v>
+        <v>2436</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1000</v>
+        <v>2703</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>120</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>2104</v>
+        <v>3889</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>373</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>2422</v>
+        <v>3893</v>
       </c>
       <c r="B14">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>2991</v>
+        <v>4232</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -553,10 +553,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>3975</v>
+        <v>5734</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>4232</v>
+        <v>6497</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -575,166 +575,89 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>5005</v>
+        <v>8216</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>149</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>5946</v>
+        <v>9507</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>128</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>7885</v>
+        <v>11504</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>8216</v>
+        <v>11681</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>9507</v>
+        <v>11685</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>225</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>11158</v>
+        <v>11772</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>543</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>11504</v>
+        <v>11844</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24">
-        <v>155</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>11681</v>
+        <v>21683</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>11685</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>11772</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>11848</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>11952</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>21683</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>23380</v>
-      </c>
-      <c r="B31">
-        <v>29</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>24567</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,76 +399,76 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>305</v>
+        <v>142</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>345</v>
+        <v>145</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>349</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>440</v>
+        <v>146</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>219</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>996</v>
+        <v>413</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -476,188 +476,408 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>2057</v>
+        <v>440</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>530</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2336</v>
+        <v>515</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>664</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>2436</v>
+        <v>523</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>2703</v>
+        <v>593</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>3889</v>
+        <v>996</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>3893</v>
+        <v>999</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>4232</v>
+        <v>1124</v>
       </c>
       <c r="B15">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>5734</v>
+        <v>1309</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>6497</v>
+        <v>1414</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>8216</v>
+        <v>2057</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>98</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>9507</v>
+        <v>2775</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>225</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>11504</v>
+        <v>2991</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>155</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>11681</v>
+        <v>3429</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>11685</v>
+        <v>3442</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>11772</v>
+        <v>3840</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>11844</v>
+        <v>3896</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>300</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>21683</v>
+        <v>4232</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>4253</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>5452</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>5453</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>6872</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>7004</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>7005</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>7706</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>8120</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>8659</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>8672</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>9760</v>
+      </c>
+      <c r="B36">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>10407</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>11234</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>11681</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>12373</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>12870</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>13280</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>13281</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>23380</v>
+      </c>
+      <c r="B44">
+        <v>29</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>24258</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,7 +399,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -410,197 +410,197 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>126</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>169</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>176</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>413</v>
+        <v>146</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>440</v>
+        <v>201</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>219</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>515</v>
+        <v>248</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>237</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>523</v>
+        <v>345</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>171</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>593</v>
+        <v>346</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>255</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>996</v>
+        <v>413</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>261</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>999</v>
+        <v>2424</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C14">
-        <v>121</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1124</v>
+        <v>2436</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1309</v>
+        <v>2774</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1414</v>
+        <v>3429</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>113</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>2057</v>
+        <v>3840</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>512</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>2775</v>
+        <v>3891</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>2991</v>
+        <v>3894</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -608,76 +608,76 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>3429</v>
+        <v>3982</v>
       </c>
       <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>15</v>
-      </c>
-      <c r="C21">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>3442</v>
+        <v>4253</v>
       </c>
       <c r="B22">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>3840</v>
+        <v>5208</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>3896</v>
+        <v>5209</v>
       </c>
       <c r="B24">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>4232</v>
+        <v>8120</v>
       </c>
       <c r="B25">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>4253</v>
+        <v>8672</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>5452</v>
+        <v>8677</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -685,29 +685,29 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>5453</v>
+        <v>9491</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>113</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>6872</v>
+        <v>9491</v>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>7004</v>
+        <v>10410</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -718,40 +718,40 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>7005</v>
+        <v>11772</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>7706</v>
+        <v>12621</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>201</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>8120</v>
+        <v>20650</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>262</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>8659</v>
+        <v>21793</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -762,10 +762,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>8672</v>
+        <v>24127</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -773,112 +773,13 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>9760</v>
+        <v>24258</v>
       </c>
       <c r="B36">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>10407</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>11234</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>11681</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>12373</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>12870</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>13280</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>13281</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>23380</v>
-      </c>
-      <c r="B44">
-        <v>29</v>
-      </c>
-      <c r="C44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>24258</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>7</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,24 +399,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>126</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,7 +427,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,48 +438,48 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>175</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -487,35 +487,35 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -531,73 +531,73 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>2424</v>
+        <v>440</v>
       </c>
       <c r="B14">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>2436</v>
+        <v>1126</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>129</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>2774</v>
+        <v>2424</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>3429</v>
+        <v>2436</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>60</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>3840</v>
+        <v>3430</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>3891</v>
+        <v>3840</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>129</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>3894</v>
+        <v>3889</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -608,21 +608,21 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>3982</v>
+        <v>3894</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>4253</v>
+        <v>6158</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>5208</v>
+        <v>7084</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -641,10 +641,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>5209</v>
+        <v>8659</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -652,32 +652,32 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>8120</v>
+        <v>8673</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>261</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>8672</v>
+        <v>8853</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26">
-        <v>323</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>8677</v>
+        <v>9491</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -688,59 +688,59 @@
         <v>9491</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C28">
-        <v>49</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>9491</v>
+        <v>11159</v>
       </c>
       <c r="B29">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>10410</v>
+        <v>11504</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>11772</v>
+        <v>11681</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>12621</v>
+        <v>12010</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>20650</v>
+        <v>12621</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>21793</v>
+        <v>20650</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -762,24 +762,57 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>24127</v>
+        <v>21793</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>24258</v>
+        <v>22317</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>157</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>23380</v>
+      </c>
+      <c r="B37">
+        <v>29</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>24127</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>24707</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,35 +399,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,34 +438,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>168</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>143</v>
+        <v>305</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>248</v>
+        <v>410</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -487,98 +487,98 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>305</v>
+        <v>440</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>164</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>361</v>
+        <v>972</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>171</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>362</v>
+        <v>998</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>154</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>413</v>
+        <v>1126</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>440</v>
+        <v>1277</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>212</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1126</v>
+        <v>1504</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>253</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>2424</v>
+        <v>1598</v>
       </c>
       <c r="B16">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>2436</v>
+        <v>1667</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>129</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>3430</v>
+        <v>2328</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -586,21 +586,21 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>3840</v>
+        <v>2336</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>193</v>
+        <v>668</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>3889</v>
+        <v>2424</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -608,21 +608,21 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>3894</v>
+        <v>2859</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>6158</v>
+        <v>5453</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -630,21 +630,21 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>7084</v>
+        <v>5585</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>8659</v>
+        <v>6158</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -652,10 +652,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>8673</v>
+        <v>7084</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -663,24 +663,24 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>8853</v>
+        <v>7705</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>9491</v>
+        <v>8677</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -688,59 +688,59 @@
         <v>9491</v>
       </c>
       <c r="B28">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>2439</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>11159</v>
+        <v>9491</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>11504</v>
+        <v>9690</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>155</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>11681</v>
+        <v>10388</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>12010</v>
+        <v>10780</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>164</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>12621</v>
+        <v>11587</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -751,43 +751,43 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>20650</v>
+        <v>11685</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>21793</v>
+        <v>11772</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>272</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>22317</v>
+        <v>12010</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>23380</v>
+        <v>12621</v>
       </c>
       <c r="B37">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -795,23 +795,56 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>24127</v>
+        <v>21793</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
+        <v>21798</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>23262</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>24126</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
         <v>24707</v>
       </c>
-      <c r="B39">
+      <c r="B42">
         <v>3</v>
       </c>
-      <c r="C39">
+      <c r="C42">
         <v>8</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,24 +399,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,18 +427,18 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>272</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,92 +449,92 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>172</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>305</v>
+        <v>143</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>410</v>
+        <v>145</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>440</v>
+        <v>146</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>219</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>972</v>
+        <v>305</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>111</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>998</v>
+        <v>491</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1126</v>
+        <v>1413</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>255</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1277</v>
+        <v>1654</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1504</v>
+        <v>1668</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -553,10 +553,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1598</v>
+        <v>5734</v>
       </c>
       <c r="B16">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -564,18 +564,18 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1667</v>
+        <v>6935</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>2328</v>
+        <v>7708</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -586,65 +586,65 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>2336</v>
+        <v>8216</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>668</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>2424</v>
+        <v>10149</v>
       </c>
       <c r="B20">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2859</v>
+        <v>10780</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>80</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>5453</v>
+        <v>11681</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>5585</v>
+        <v>11683</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>277</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>6158</v>
+        <v>13034</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -652,10 +652,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>7084</v>
+        <v>21793</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -663,189 +663,13 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>7705</v>
+        <v>24126</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>8677</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>9491</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>9491</v>
-      </c>
-      <c r="B29">
-        <v>21</v>
-      </c>
-      <c r="C29">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>9690</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>10388</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>10780</v>
-      </c>
-      <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>11587</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>11685</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>11772</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>12010</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>12621</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>21793</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>21798</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>23262</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>24126</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
         <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>24707</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,252 +399,252 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>244</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>137</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>99</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>66</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>173</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>174</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>174</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>305</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>167</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>491</v>
+        <v>130</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>480</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1413</v>
+        <v>143</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>114</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1654</v>
+        <v>144</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1668</v>
+        <v>145</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>5734</v>
+        <v>159</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>6935</v>
+        <v>159</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>802</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>7708</v>
+        <v>192</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>8216</v>
+        <v>215</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>10149</v>
+        <v>216</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>10780</v>
+        <v>248</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>416</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>11681</v>
+        <v>305</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>11683</v>
+        <v>335</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>13034</v>
+        <v>336</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -652,10 +652,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>21793</v>
+        <v>345</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -663,13 +663,1432 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>24126</v>
+        <v>361</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>378</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>410</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>440</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>470</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>491</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>590</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>790</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>823</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>857</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>922</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>972</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>991</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>998</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>1007</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>1309</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>1413</v>
+      </c>
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>1447</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>1490</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>1602</v>
+      </c>
+      <c r="B45">
+        <v>68</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>1656</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>1668</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>2050</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>2054</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>2108</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>2109</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>2188</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>2331</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>2418</v>
+      </c>
+      <c r="B54">
+        <v>29</v>
+      </c>
+      <c r="C54">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>2419</v>
+      </c>
+      <c r="B55">
+        <v>29</v>
+      </c>
+      <c r="C55">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>2424</v>
+      </c>
+      <c r="B56">
+        <v>29</v>
+      </c>
+      <c r="C56">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>2436</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>2438</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>2735</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>2805</v>
+      </c>
+      <c r="B60">
+        <v>137</v>
+      </c>
+      <c r="C60">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>2916</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>3429</v>
+      </c>
+      <c r="B62">
+        <v>15</v>
+      </c>
+      <c r="C62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>3430</v>
+      </c>
+      <c r="B63">
+        <v>15</v>
+      </c>
+      <c r="C63">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>3451</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>3453</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>3576</v>
+      </c>
+      <c r="B66">
+        <v>29</v>
+      </c>
+      <c r="C66">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>3610</v>
+      </c>
+      <c r="B67">
+        <v>24</v>
+      </c>
+      <c r="C67">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>3840</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>3889</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>3893</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>3898</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>3906</v>
+      </c>
+      <c r="B72">
+        <v>14</v>
+      </c>
+      <c r="C72">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>3976</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>3980</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>3981</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>3982</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>4671</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>5080</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>5111</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>5165</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>5208</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>5343</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>5490</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>5491</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>5577</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>5584</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>5585</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>5660</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>6158</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>6356</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>6494</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>7007</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>7036</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>7084</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>7457</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>7573</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>8106</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>8121</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>8600</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>8660</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>8672</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>8676</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>8753</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>8853</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>8926</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>8944</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>9065</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>9085</v>
+      </c>
+      <c r="B108">
+        <v>29</v>
+      </c>
+      <c r="C108">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>9491</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>9491</v>
+      </c>
+      <c r="B110">
+        <v>21</v>
+      </c>
+      <c r="C110">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>9507</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>10185</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>10407</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>10408</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>10780</v>
+      </c>
+      <c r="B115">
+        <v>10</v>
+      </c>
+      <c r="C115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>11150</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>11503</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>11687</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>11689</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>11690</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>11772</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>11972</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>12040</v>
+      </c>
+      <c r="B123">
+        <v>68</v>
+      </c>
+      <c r="C123">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>12147</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>12212</v>
+      </c>
+      <c r="B125">
+        <v>29</v>
+      </c>
+      <c r="C125">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>12304</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>12417</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>12764</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>12791</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>12923</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>12924</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>12968</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>13928</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>19582</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>19685</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>19966</v>
+      </c>
+      <c r="B136">
+        <v>29</v>
+      </c>
+      <c r="C136">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>19969</v>
+      </c>
+      <c r="B137">
+        <v>29</v>
+      </c>
+      <c r="C137">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>20927</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>21683</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>21699</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>21793</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>21806</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>21807</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>21808</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>21810</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>22317</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>23235</v>
+      </c>
+      <c r="B147">
+        <v>29</v>
+      </c>
+      <c r="C147">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>23262</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>24252</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>24253</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>24257</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>24258</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>24260</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>24566</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>24567</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:C197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,150 +399,150 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>245</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>42</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>253</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>642</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>138</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>281</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>67</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>173</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>174</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -553,131 +553,131 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>45</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>802</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>1687</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>44</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>305</v>
+        <v>152</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>167</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>335</v>
+        <v>159</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>1462</v>
+        <v>807</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>336</v>
+        <v>161</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>843</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>345</v>
+        <v>192</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>361</v>
+        <v>205</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26">
-        <v>171</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>378</v>
+        <v>215</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -685,21 +685,21 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>410</v>
+        <v>216</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>114</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>440</v>
+        <v>247</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -707,777 +707,777 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>470</v>
+        <v>305</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>39</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>491</v>
+        <v>336</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>480</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>590</v>
+        <v>345</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>111</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>790</v>
+        <v>361</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33">
-        <v>45</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>823</v>
+        <v>362</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>46</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>857</v>
+        <v>399</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C35">
-        <v>54</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>922</v>
+        <v>435</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>972</v>
+        <v>523</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>112</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>991</v>
+        <v>590</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C38">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>998</v>
+        <v>823</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1007</v>
+        <v>925</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>305</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1309</v>
+        <v>950</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1413</v>
+        <v>974</v>
       </c>
       <c r="B42">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>117</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1447</v>
+        <v>995</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1490</v>
+        <v>1007</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>57</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1602</v>
+        <v>1055</v>
       </c>
       <c r="B45">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1656</v>
+        <v>1082</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>1668</v>
+        <v>1309</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>2050</v>
+        <v>1406</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>535</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>2054</v>
+        <v>1413</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C49">
-        <v>514</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>2108</v>
+        <v>1414</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>50</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>2109</v>
+        <v>1447</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>2188</v>
+        <v>1452</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>77</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>2331</v>
+        <v>1519</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>135</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>2418</v>
+        <v>1602</v>
       </c>
       <c r="B54">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C54">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>2419</v>
+        <v>1667</v>
       </c>
       <c r="B55">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>2424</v>
+        <v>1801</v>
       </c>
       <c r="B56">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>39</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>2436</v>
+        <v>1880</v>
       </c>
       <c r="B57">
         <v>4</v>
       </c>
       <c r="C57">
-        <v>129</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>2438</v>
+        <v>2049</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>61</v>
+        <v>625</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>2735</v>
+        <v>2188</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>62</v>
+        <v>953</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>2805</v>
+        <v>2322</v>
       </c>
       <c r="B60">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>205</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>2916</v>
+        <v>2328</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>3429</v>
+        <v>2331</v>
       </c>
       <c r="B62">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>3430</v>
+        <v>2423</v>
       </c>
       <c r="B63">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C63">
-        <v>80</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>3451</v>
+        <v>2436</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C64">
-        <v>85</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>3453</v>
+        <v>2438</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>82</v>
+        <v>728</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>3576</v>
+        <v>2480</v>
       </c>
       <c r="B66">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C66">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>3610</v>
+        <v>2703</v>
       </c>
       <c r="B67">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>239</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>3840</v>
+        <v>2859</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C68">
-        <v>194</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>3889</v>
+        <v>2912</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>129</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>3893</v>
+        <v>2934</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>129</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>3898</v>
+        <v>2991</v>
       </c>
       <c r="B71">
         <v>3</v>
       </c>
       <c r="C71">
-        <v>42</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>3906</v>
+        <v>3012</v>
       </c>
       <c r="B72">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>216</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>3976</v>
+        <v>3049</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73">
-        <v>1853</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>3980</v>
+        <v>3258</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C74">
-        <v>553</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>3981</v>
+        <v>3430</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C75">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>3982</v>
+        <v>3575</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>4671</v>
+        <v>3576</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C77">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>5080</v>
+        <v>3577</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C78">
-        <v>136</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>5111</v>
+        <v>3610</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C79">
-        <v>7</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>5165</v>
+        <v>3674</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80">
-        <v>54</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>5208</v>
+        <v>3891</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>642</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>5343</v>
+        <v>3896</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C82">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>5490</v>
+        <v>3898</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C83">
-        <v>115</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>5491</v>
+        <v>3899</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>5577</v>
+        <v>3900</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
       <c r="C85">
-        <v>240</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>5584</v>
+        <v>3902</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C86">
-        <v>281</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>5585</v>
+        <v>3905</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C87">
-        <v>285</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>5660</v>
+        <v>3908</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C88">
-        <v>7</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>6158</v>
+        <v>3980</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C89">
-        <v>299</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>6356</v>
+        <v>3981</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90">
-        <v>113</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>6494</v>
+        <v>3982</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>56</v>
+        <v>939</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>7007</v>
+        <v>4223</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>7036</v>
+        <v>5080</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>7</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>7084</v>
+        <v>5151</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>7457</v>
+        <v>5152</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C95">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>7573</v>
+        <v>5153</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>8106</v>
+        <v>5165</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>8121</v>
+        <v>5341</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C98">
-        <v>344</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>8600</v>
+        <v>5343</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C99">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>8660</v>
+        <v>5452</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -1488,43 +1488,43 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>8672</v>
+        <v>5493</v>
       </c>
       <c r="B101">
         <v>2</v>
       </c>
       <c r="C101">
-        <v>323</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>8676</v>
+        <v>5585</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C102">
-        <v>323</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>8753</v>
+        <v>5660</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103">
-        <v>33</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>8853</v>
+        <v>5780</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -1532,563 +1532,1025 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>8926</v>
+        <v>5812</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C105">
-        <v>71</v>
+        <v>683</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>8944</v>
+        <v>6158</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106">
-        <v>247</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>9065</v>
+        <v>7004</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C107">
-        <v>345</v>
+        <v>91</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>9085</v>
+        <v>7885</v>
       </c>
       <c r="B108">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C108">
-        <v>36</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>9491</v>
+        <v>8121</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C109">
-        <v>50</v>
+        <v>343</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>9491</v>
+        <v>8216</v>
       </c>
       <c r="B110">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C110">
-        <v>2580</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>9507</v>
+        <v>8648</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>10185</v>
+        <v>8659</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C112">
-        <v>103</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>10407</v>
+        <v>8660</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
       <c r="C113">
-        <v>106</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>10408</v>
+        <v>8676</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>69</v>
+        <v>331</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>10780</v>
+        <v>8754</v>
       </c>
       <c r="B115">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>7</v>
+        <v>395</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>11150</v>
+        <v>8853</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C116">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>11503</v>
+        <v>8915</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117">
-        <v>7</v>
+        <v>174</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>11687</v>
+        <v>8932</v>
       </c>
       <c r="B118">
         <v>2</v>
       </c>
       <c r="C118">
-        <v>341</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>11689</v>
+        <v>8939</v>
       </c>
       <c r="B119">
         <v>2</v>
       </c>
       <c r="C119">
-        <v>344</v>
+        <v>179</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>11690</v>
+        <v>8943</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C120">
-        <v>347</v>
+        <v>440</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>11772</v>
+        <v>9065</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121">
-        <v>7</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>11972</v>
+        <v>9085</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C122">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>12040</v>
+        <v>9113</v>
       </c>
       <c r="B123">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="C123">
-        <v>130</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>12147</v>
+        <v>9138</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124">
-        <v>44</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>12212</v>
+        <v>9491</v>
       </c>
       <c r="B125">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C125">
-        <v>126</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>12304</v>
+        <v>9608</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
       <c r="C126">
-        <v>128</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>12417</v>
+        <v>9609</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
       <c r="C127">
-        <v>172</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>12764</v>
+        <v>9784</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>12791</v>
+        <v>9827</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C129">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>12923</v>
+        <v>9830</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C130">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>12924</v>
+        <v>9920</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C131">
-        <v>59</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>12968</v>
+        <v>9960</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C132">
-        <v>257</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>13928</v>
+        <v>10170</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>19582</v>
+        <v>10185</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C134">
-        <v>170</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>19685</v>
+        <v>10406</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C135">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>19966</v>
+        <v>10409</v>
       </c>
       <c r="B136">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C136">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>19969</v>
+        <v>10410</v>
       </c>
       <c r="B137">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C137">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>20927</v>
+        <v>10574</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C138">
-        <v>90</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>21683</v>
+        <v>10720</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C139">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>21699</v>
+        <v>10721</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C140">
-        <v>207</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>21793</v>
+        <v>10993</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C141">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>21806</v>
+        <v>11150</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C142">
-        <v>110</v>
+        <v>404</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>21807</v>
+        <v>11399</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C143">
-        <v>110</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>21808</v>
+        <v>11426</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C144">
-        <v>109</v>
+        <v>137</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>21810</v>
+        <v>11426</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C145">
-        <v>109</v>
+        <v>46</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>22317</v>
+        <v>11450</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C146">
-        <v>7</v>
+        <v>578</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>23235</v>
+        <v>11493</v>
       </c>
       <c r="B147">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C147">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>23262</v>
+        <v>11587</v>
       </c>
       <c r="B148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C148">
-        <v>337</v>
+        <v>460</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>24252</v>
+        <v>11690</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149">
-        <v>218</v>
+        <v>348</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>24253</v>
+        <v>11737</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150">
-        <v>214</v>
+        <v>67</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>24257</v>
+        <v>11772</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
       <c r="C151">
-        <v>158</v>
+        <v>221</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>24258</v>
+        <v>11813</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
       <c r="C152">
-        <v>158</v>
+        <v>354</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>24260</v>
+        <v>11848</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
       <c r="C153">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>24566</v>
+        <v>11858</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
       <c r="C154">
-        <v>7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
+        <v>11868</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>11885</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>11886</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>11960</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>11972</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>12010</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>12141</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>12145</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>12271</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>12344</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>12511</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>12546</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>12563</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>12586</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+      <c r="C168">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>12764</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>12791</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="C170">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>12924</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>12925</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>13023</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>13045</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>13293</v>
+      </c>
+      <c r="B175">
+        <v>3</v>
+      </c>
+      <c r="C175">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>13928</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>13962</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>19965</v>
+      </c>
+      <c r="B178">
+        <v>29</v>
+      </c>
+      <c r="C178">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>19968</v>
+      </c>
+      <c r="B179">
+        <v>25</v>
+      </c>
+      <c r="C179">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>20978</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>21082</v>
+      </c>
+      <c r="B181">
+        <v>10</v>
+      </c>
+      <c r="C181">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>21712</v>
+      </c>
+      <c r="B182">
+        <v>3</v>
+      </c>
+      <c r="C182">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>21793</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>21808</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>21810</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>22316</v>
+      </c>
+      <c r="B186">
+        <v>3</v>
+      </c>
+      <c r="C186">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>22631</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>23237</v>
+      </c>
+      <c r="B188">
+        <v>25</v>
+      </c>
+      <c r="C188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>23262</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>23599</v>
+      </c>
+      <c r="B190">
+        <v>10</v>
+      </c>
+      <c r="C190">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>24127</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>24252</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>24253</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>24260</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
         <v>24567</v>
       </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-      <c r="C155">
-        <v>371</v>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>24707</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>25286</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_703.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C197"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,285 +399,285 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>57</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>130</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>129</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>128</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>389</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>85</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>646</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>139</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1261</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>101</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>67</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>175</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>174</v>
+        <v>838</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>174</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>146</v>
+        <v>305</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>151</v>
+        <v>332</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>141</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>159</v>
+        <v>345</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>807</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>161</v>
+        <v>346</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>843</v>
+        <v>683</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>192</v>
+        <v>362</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>205</v>
+        <v>434</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>215</v>
+        <v>475</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -685,21 +685,21 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>216</v>
+        <v>593</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>47</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>247</v>
+        <v>615</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -707,73 +707,73 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>305</v>
+        <v>616</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30">
-        <v>170</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>336</v>
+        <v>823</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>345</v>
+        <v>857</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>354</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>361</v>
+        <v>925</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>173</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>362</v>
+        <v>972</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>157</v>
+        <v>690</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>399</v>
+        <v>995</v>
       </c>
       <c r="B35">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>154</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>435</v>
+        <v>996</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -784,285 +784,285 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>523</v>
+        <v>997</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37">
-        <v>172</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>590</v>
+        <v>998</v>
       </c>
       <c r="B38">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>111</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>823</v>
+        <v>1007</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>46</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>925</v>
+        <v>1124</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>63</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>950</v>
+        <v>1134</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>974</v>
+        <v>1309</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>174</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>995</v>
+        <v>1414</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C43">
-        <v>275</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1007</v>
+        <v>1429</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44">
-        <v>307</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1055</v>
+        <v>1452</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1082</v>
+        <v>1601</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C46">
-        <v>49</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>1309</v>
+        <v>1602</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C47">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>1406</v>
+        <v>1706</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>1413</v>
+        <v>2287</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C49">
-        <v>118</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1414</v>
+        <v>2325</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>1447</v>
+        <v>2331</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>1452</v>
+        <v>2336</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>686</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>1519</v>
+        <v>2423</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C53">
-        <v>1865</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>1602</v>
+        <v>2424</v>
       </c>
       <c r="B54">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>1667</v>
+        <v>2436</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>1801</v>
+        <v>2438</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>113</v>
+        <v>724</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>1880</v>
+        <v>2774</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>264</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>2049</v>
+        <v>2859</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>625</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>2188</v>
+        <v>2878</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>953</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>2322</v>
+        <v>2991</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60">
-        <v>122</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>2328</v>
+        <v>3012</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>2331</v>
+        <v>3341</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -1070,736 +1070,736 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>2423</v>
+        <v>3575</v>
       </c>
       <c r="B63">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C63">
-        <v>213</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>2436</v>
+        <v>3610</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C64">
-        <v>131</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>2438</v>
+        <v>3674</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
       <c r="C65">
-        <v>728</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>2480</v>
+        <v>3898</v>
       </c>
       <c r="B66">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>2703</v>
+        <v>3899</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>2859</v>
+        <v>3901</v>
       </c>
       <c r="B68">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>2912</v>
+        <v>3980</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>55</v>
+        <v>576</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>2934</v>
+        <v>3982</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>2991</v>
+        <v>4223</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>166</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>3012</v>
+        <v>4966</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72">
-        <v>57</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>3049</v>
+        <v>5005</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>3258</v>
+        <v>5153</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>228</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>3430</v>
+        <v>5165</v>
       </c>
       <c r="B75">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>3575</v>
+        <v>5208</v>
       </c>
       <c r="B76">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>3576</v>
+        <v>5209</v>
       </c>
       <c r="B77">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C77">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>3577</v>
+        <v>5343</v>
       </c>
       <c r="B78">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>3610</v>
+        <v>5577</v>
       </c>
       <c r="B79">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C79">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>3674</v>
+        <v>5584</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C80">
-        <v>269</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>3891</v>
+        <v>5585</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C81">
-        <v>7</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>3896</v>
+        <v>6097</v>
       </c>
       <c r="B82">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C82">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>3898</v>
+        <v>6494</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>3899</v>
+        <v>6496</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>3900</v>
+        <v>6497</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>3902</v>
+        <v>7520</v>
       </c>
       <c r="B86">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>3905</v>
+        <v>7885</v>
       </c>
       <c r="B87">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C87">
-        <v>7</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>3908</v>
+        <v>7886</v>
       </c>
       <c r="B88">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C88">
-        <v>228</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>3980</v>
+        <v>7887</v>
       </c>
       <c r="B89">
         <v>4</v>
       </c>
       <c r="C89">
-        <v>8</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>3981</v>
+        <v>8120</v>
       </c>
       <c r="B90">
         <v>3</v>
       </c>
       <c r="C90">
-        <v>1875</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>3982</v>
+        <v>8156</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91">
-        <v>939</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>4223</v>
+        <v>8216</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>5080</v>
+        <v>8650</v>
       </c>
       <c r="B93">
         <v>2</v>
       </c>
       <c r="C93">
-        <v>132</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>5151</v>
+        <v>8660</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>5152</v>
+        <v>8672</v>
       </c>
       <c r="B95">
         <v>2</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>324</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>5153</v>
+        <v>8673</v>
       </c>
       <c r="B96">
         <v>2</v>
       </c>
       <c r="C96">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>5165</v>
+        <v>8676</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97">
-        <v>55</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>5341</v>
+        <v>8677</v>
       </c>
       <c r="B98">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C98">
-        <v>195</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>5343</v>
+        <v>8753</v>
       </c>
       <c r="B99">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C99">
-        <v>103</v>
+        <v>397</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>5452</v>
+        <v>8915</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100">
-        <v>7</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>5493</v>
+        <v>8938</v>
       </c>
       <c r="B101">
         <v>2</v>
       </c>
       <c r="C101">
-        <v>113</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>5585</v>
+        <v>8939</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102">
-        <v>290</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>5660</v>
+        <v>8944</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C103">
-        <v>219</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>5780</v>
+        <v>9085</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C104">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>5812</v>
+        <v>9087</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C105">
-        <v>683</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>6158</v>
+        <v>9113</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C106">
-        <v>7</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>7004</v>
+        <v>9138</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107">
-        <v>91</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>7885</v>
+        <v>9529</v>
       </c>
       <c r="B108">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C108">
-        <v>158</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>8121</v>
+        <v>9609</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C109">
-        <v>343</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>8216</v>
+        <v>9760</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C110">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>8648</v>
+        <v>10147</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C111">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>8659</v>
+        <v>10170</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112">
-        <v>134</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>8660</v>
+        <v>10408</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C113">
-        <v>47</v>
+        <v>844</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>8676</v>
+        <v>10410</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C114">
-        <v>331</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>8754</v>
+        <v>10453</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C115">
-        <v>395</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>8853</v>
+        <v>10454</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>8915</v>
+        <v>10468</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C117">
-        <v>174</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>8932</v>
+        <v>10720</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C118">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>8939</v>
+        <v>10993</v>
       </c>
       <c r="B119">
         <v>2</v>
       </c>
       <c r="C119">
-        <v>179</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>8943</v>
+        <v>11435</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120">
-        <v>440</v>
+        <v>576</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>9065</v>
+        <v>11450</v>
       </c>
       <c r="B121">
         <v>2</v>
       </c>
       <c r="C121">
-        <v>348</v>
+        <v>578</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>9085</v>
+        <v>11587</v>
       </c>
       <c r="B122">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>9113</v>
+        <v>11739</v>
       </c>
       <c r="B123">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C123">
-        <v>166</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>9138</v>
+        <v>11772</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124">
-        <v>219</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>9491</v>
+        <v>11812</v>
       </c>
       <c r="B125">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C125">
-        <v>2547</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>9608</v>
+        <v>11813</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
       <c r="C126">
-        <v>73</v>
+        <v>364</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>9609</v>
+        <v>11814</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
       <c r="C127">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>9784</v>
+        <v>11868</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C128">
-        <v>83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>9827</v>
+        <v>11895</v>
       </c>
       <c r="B129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C129">
         <v>7</v>
@@ -1807,750 +1807,321 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>9830</v>
+        <v>12229</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130">
-        <v>7</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>9920</v>
+        <v>12270</v>
       </c>
       <c r="B131">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C131">
-        <v>1635</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>9960</v>
+        <v>12546</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C132">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>10170</v>
+        <v>12563</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133">
-        <v>62</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>10185</v>
+        <v>12586</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C134">
-        <v>7</v>
+        <v>676</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>10406</v>
+        <v>12764</v>
       </c>
       <c r="B135">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C135">
-        <v>15</v>
+        <v>849</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>10409</v>
+        <v>12791</v>
       </c>
       <c r="B136">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C136">
-        <v>10</v>
+        <v>926</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>10410</v>
+        <v>12923</v>
       </c>
       <c r="B137">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>10574</v>
+        <v>12925</v>
       </c>
       <c r="B138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>10720</v>
+        <v>13045</v>
       </c>
       <c r="B139">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C139">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>10721</v>
+        <v>13928</v>
       </c>
       <c r="B140">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>10993</v>
+        <v>19966</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C141">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>11150</v>
+        <v>19968</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C142">
-        <v>404</v>
+        <v>113</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>11399</v>
+        <v>19982</v>
       </c>
       <c r="B143">
         <v>2</v>
       </c>
       <c r="C143">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>11426</v>
+        <v>20498</v>
       </c>
       <c r="B144">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C144">
-        <v>137</v>
+        <v>666</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>11426</v>
+        <v>20650</v>
       </c>
       <c r="B145">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C145">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>11450</v>
+        <v>21082</v>
       </c>
       <c r="B146">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C146">
-        <v>578</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>11493</v>
+        <v>21091</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C147">
-        <v>7</v>
+        <v>151</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>11587</v>
+        <v>21683</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C148">
-        <v>460</v>
+        <v>704</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>11690</v>
+        <v>21809</v>
       </c>
       <c r="B149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C149">
-        <v>348</v>
+        <v>114</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>11737</v>
+        <v>22631</v>
       </c>
       <c r="B150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C150">
-        <v>67</v>
+        <v>844</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>11772</v>
+        <v>22634</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C151">
-        <v>221</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>11813</v>
+        <v>23645</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C152">
-        <v>354</v>
+        <v>58</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>11848</v>
+        <v>24127</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C153">
-        <v>165</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>11858</v>
+        <v>24252</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
       <c r="C154">
-        <v>117</v>
+        <v>214</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>11868</v>
+        <v>24257</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C155">
-        <v>7</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>11885</v>
+        <v>24260</v>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C156">
-        <v>220</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>11886</v>
+        <v>24708</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C157">
-        <v>229</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>11960</v>
+        <v>25899</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C158">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159">
-        <v>11972</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-      <c r="C159">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160">
-        <v>12010</v>
-      </c>
-      <c r="B160">
-        <v>3</v>
-      </c>
-      <c r="C160">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161">
-        <v>12141</v>
-      </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="C161">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162">
-        <v>12145</v>
-      </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-      <c r="C162">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163">
-        <v>12271</v>
-      </c>
-      <c r="B163">
-        <v>2</v>
-      </c>
-      <c r="C163">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164">
-        <v>12344</v>
-      </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-      <c r="C164">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165">
-        <v>12511</v>
-      </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-      <c r="C165">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166">
-        <v>12546</v>
-      </c>
-      <c r="B166">
-        <v>2</v>
-      </c>
-      <c r="C166">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167">
-        <v>12563</v>
-      </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="C167">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168">
-        <v>12586</v>
-      </c>
-      <c r="B168">
-        <v>3</v>
-      </c>
-      <c r="C168">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169">
-        <v>12764</v>
-      </c>
-      <c r="B169">
-        <v>2</v>
-      </c>
-      <c r="C169">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170">
-        <v>12791</v>
-      </c>
-      <c r="B170">
-        <v>2</v>
-      </c>
-      <c r="C170">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171">
-        <v>12924</v>
-      </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-      <c r="C171">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172">
-        <v>12925</v>
-      </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-      <c r="C172">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173">
-        <v>13023</v>
-      </c>
-      <c r="B173">
-        <v>3</v>
-      </c>
-      <c r="C173">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174">
-        <v>13045</v>
-      </c>
-      <c r="B174">
-        <v>1</v>
-      </c>
-      <c r="C174">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175">
-        <v>13293</v>
-      </c>
-      <c r="B175">
-        <v>3</v>
-      </c>
-      <c r="C175">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176">
-        <v>13928</v>
-      </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-      <c r="C176">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177">
-        <v>13962</v>
-      </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-      <c r="C177">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178">
-        <v>19965</v>
-      </c>
-      <c r="B178">
-        <v>29</v>
-      </c>
-      <c r="C178">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179">
-        <v>19968</v>
-      </c>
-      <c r="B179">
-        <v>25</v>
-      </c>
-      <c r="C179">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180">
-        <v>20978</v>
-      </c>
-      <c r="B180">
-        <v>1</v>
-      </c>
-      <c r="C180">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181">
-        <v>21082</v>
-      </c>
-      <c r="B181">
-        <v>10</v>
-      </c>
-      <c r="C181">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182">
-        <v>21712</v>
-      </c>
-      <c r="B182">
-        <v>3</v>
-      </c>
-      <c r="C182">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183">
-        <v>21793</v>
-      </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-      <c r="C183">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184">
-        <v>21808</v>
-      </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-      <c r="C184">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185">
-        <v>21810</v>
-      </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-      <c r="C185">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186">
-        <v>22316</v>
-      </c>
-      <c r="B186">
-        <v>3</v>
-      </c>
-      <c r="C186">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187">
-        <v>22631</v>
-      </c>
-      <c r="B187">
-        <v>3</v>
-      </c>
-      <c r="C187">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188">
-        <v>23237</v>
-      </c>
-      <c r="B188">
-        <v>25</v>
-      </c>
-      <c r="C188">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189">
-        <v>23262</v>
-      </c>
-      <c r="B189">
-        <v>2</v>
-      </c>
-      <c r="C189">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190">
-        <v>23599</v>
-      </c>
-      <c r="B190">
-        <v>10</v>
-      </c>
-      <c r="C190">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191">
-        <v>24127</v>
-      </c>
-      <c r="B191">
-        <v>3</v>
-      </c>
-      <c r="C191">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192">
-        <v>24252</v>
-      </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-      <c r="C192">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193">
-        <v>24253</v>
-      </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-      <c r="C193">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194">
-        <v>24260</v>
-      </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-      <c r="C194">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195">
-        <v>24567</v>
-      </c>
-      <c r="B195">
-        <v>1</v>
-      </c>
-      <c r="C195">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196">
-        <v>24707</v>
-      </c>
-      <c r="B196">
-        <v>3</v>
-      </c>
-      <c r="C196">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197">
-        <v>25286</v>
-      </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-      <c r="C197">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
